--- a/Support_data/Airport_data_frequency.xlsx
+++ b/Support_data/Airport_data_frequency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2384,6 +2384,1236 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>AUH</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>CMN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DWC</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DXB</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>HRG</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>IKU</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>KWI</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SHJ</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SSH</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>TJU</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UTP</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AUH</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CMN</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DWC</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DXB</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>HRG</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>IKU</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>KWI</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SHJ</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SSH</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>TJU</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UTP</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>AUH</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CMN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>HRG</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>IKU</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>KWI</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>OSS</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TJU</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>UTP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SHJ</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FLIGHT</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CAF_PAS</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SSH</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
